--- a/Project and tasks.xlsx
+++ b/Project and tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master of IT\Github\project-management-SEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EEA9C33-176F-4A19-8B4B-92747EE4E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6685CC57-6789-47DD-A8D5-8F23D52208F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B5057B-2DE6-40D5-B972-F1BF6F281234}"/>
   </bookViews>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>72</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>72</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>72</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>72</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>72</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>72</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>72</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>72</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>72</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>72</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>72</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>72</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>72</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>72</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>72</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>72</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>72</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>72</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>72</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>72</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>72</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>72</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>72</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>72</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>72</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>72</v>
@@ -2394,9 +2394,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2611,27 +2614,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BD4FF7-CAC0-42AB-9F27-22121E83C427}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F60DB50-18B2-47D7-9BEC-FB5AECC9E87F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be660e3f-b125-486d-9d4e-768c37d685f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cb25b161-b277-41b7-b657-e80eff9d5d8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2656,9 +2647,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F60DB50-18B2-47D7-9BEC-FB5AECC9E87F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BD4FF7-CAC0-42AB-9F27-22121E83C427}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="be660e3f-b125-486d-9d4e-768c37d685f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb25b161-b277-41b7-b657-e80eff9d5d8d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>